--- a/regexp.xlsx
+++ b/regexp.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF1CCD4-DEE2-4644-88FC-0D9A0BF4CEC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B61A060-3240-472D-9FDB-98691F8E0E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="15156" xr2:uid="{E4D557C0-57CA-407E-BC14-4799BF69CDD3}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="177">
   <si>
     <t>修飾子</t>
     <rPh sb="0" eb="3">
@@ -125,6 +125,496 @@
   </si>
   <si>
     <t>Perl（perlre）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メタ文字</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>\</t>
+  </si>
+  <si>
+    <t>次のメタ文字をエスケープ</t>
+  </si>
+  <si>
+    <t>^</t>
+  </si>
+  <si>
+    <t>行の先頭にマッチング</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>代替</t>
+  </si>
+  <si>
+    <t>()</t>
+  </si>
+  <si>
+    <t>グループ化</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>文字クラス</t>
+  </si>
+  <si>
+    <t>任意の文字にマッチング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>行の終端にマッチング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>量指定子</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>0 回以上のマッチング</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>1 回以上のマッチング</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>1 回または 0 回のマッチング</t>
+  </si>
+  <si>
+    <t>{n}</t>
+  </si>
+  <si>
+    <t>ちょうど n 回のマッチング</t>
+  </si>
+  <si>
+    <t>{n,}</t>
+  </si>
+  <si>
+    <t>n 回以上のマッチング</t>
+  </si>
+  <si>
+    <t>{n,m}</t>
+  </si>
+  <si>
+    <t>n 回以上 m 回以下のマッチング</t>
+  </si>
+  <si>
+    <t>*?</t>
+  </si>
+  <si>
+    <t>0 回以上の貪欲でないマッチング</t>
+  </si>
+  <si>
+    <t>+?</t>
+  </si>
+  <si>
+    <t>1 回以上の貪欲でないマッチング</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>0 回または 1 回の貪欲でないマッチング</t>
+  </si>
+  <si>
+    <t>{n}?</t>
+  </si>
+  <si>
+    <t>ちょうど n 回の貪欲でないマッチング</t>
+  </si>
+  <si>
+    <t>{n,}?</t>
+  </si>
+  <si>
+    <t>n 回以上の貪欲でないマッチング</t>
+  </si>
+  <si>
+    <t>{n,m}? n 回以上 m 回以下の貪欲でないマッチング</t>
+  </si>
+  <si>
+    <t>最大量指定子（貪欲マッチ）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最小量指定子（怠惰マッチ）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+絶対最大量指定子</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*+</t>
+  </si>
+  <si>
+    <t>++</t>
+  </si>
+  <si>
+    <t>?+</t>
+  </si>
+  <si>
+    <t>{n}+</t>
+  </si>
+  <si>
+    <t>{n,}+</t>
+  </si>
+  <si>
+    <t>{n,m}+ n 回以上 m 回以下のマッチング、一度マッチするとその後マッチに失敗してもバックトラックしない</t>
+  </si>
+  <si>
+    <t>0 回以上のマッチング（バックトラックしない）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1 回以上のマッチング（バックトラックしない）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1 回または 0 回のマッチング（バックトラックしない）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ちょうど n 回のマッチング（バックトラックしない）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>n 回以上のマッチング（バックトラックしない）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>n 回以上 m 回以下のマッチング（バックトラックしない）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エスケープシーケンス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>\t</t>
+  </si>
+  <si>
+    <t>タブ(水平タブ;HT、TAB)</t>
+  </si>
+  <si>
+    <t>\n</t>
+  </si>
+  <si>
+    <t>改行(LF、NL)</t>
+  </si>
+  <si>
+    <t>\r</t>
+  </si>
+  <si>
+    <t>復帰(CR)</t>
+  </si>
+  <si>
+    <t>\f</t>
+  </si>
+  <si>
+    <t>フォームフィード(FF)</t>
+  </si>
+  <si>
+    <t>\a</t>
+  </si>
+  <si>
+    <t>アラーム (ベル)(BEL)</t>
+  </si>
+  <si>
+    <t>\e</t>
+  </si>
+  <si>
+    <t>エスケープ (troff 的)(ESC)</t>
+  </si>
+  <si>
+    <t>8進文字 (例: ESC)</t>
+  </si>
+  <si>
+    <t>\x1B</t>
+  </si>
+  <si>
+    <t>16進文字 (例: ESC)</t>
+  </si>
+  <si>
+    <t>\x{263a}</t>
+  </si>
+  <si>
+    <t>ロング16進文字 (例: Unicode SMILEY)</t>
+  </si>
+  <si>
+    <t>\cK</t>
+  </si>
+  <si>
+    <t>制御文字 (例: VT)</t>
+  </si>
+  <si>
+    <t>\N{name}</t>
+  </si>
+  <si>
+    <t>名前付きユニコード文字</t>
+  </si>
+  <si>
+    <t>\l</t>
+  </si>
+  <si>
+    <t>次の文字を小文字に (vi 的)</t>
+  </si>
+  <si>
+    <t>\u</t>
+  </si>
+  <si>
+    <t>次の文字を大文字に (vi 的)</t>
+  </si>
+  <si>
+    <t>\L</t>
+  </si>
+  <si>
+    <t>\E まで小文字に (vi 的)</t>
+  </si>
+  <si>
+    <t>\U</t>
+  </si>
+  <si>
+    <t>\E まで大文字に (vi 的)</t>
+  </si>
+  <si>
+    <t>\E</t>
+  </si>
+  <si>
+    <t>変更の終端 (vi 的)</t>
+  </si>
+  <si>
+    <t>\Q</t>
+  </si>
+  <si>
+    <t>\E までパターンメタ文字の無効化(Quote)</t>
+  </si>
+  <si>
+    <t>\w</t>
+  </si>
+  <si>
+    <t>単語 文字にマッチング (英数字及び"_")</t>
+  </si>
+  <si>
+    <t>\W</t>
+  </si>
+  <si>
+    <t>非"単語"文字にマッチング</t>
+  </si>
+  <si>
+    <t>\s</t>
+  </si>
+  <si>
+    <t>空白文字にマッチング</t>
+  </si>
+  <si>
+    <t>\S</t>
+  </si>
+  <si>
+    <t>非空白文字にマッチング</t>
+  </si>
+  <si>
+    <t>\d</t>
+  </si>
+  <si>
+    <t>数字にマッチング</t>
+  </si>
+  <si>
+    <t>\D</t>
+  </si>
+  <si>
+    <t>非数字にマッチング</t>
+  </si>
+  <si>
+    <t>\pP</t>
+  </si>
+  <si>
+    <t>名前属性 P にマッチング. 長い名前であれば \p{Prop}.</t>
+  </si>
+  <si>
+    <t>\PP</t>
+  </si>
+  <si>
+    <t>P以外にマッチング</t>
+  </si>
+  <si>
+    <t>\X</t>
+  </si>
+  <si>
+    <t>拡張 Unicode "複合文字シーケンス (combining character sequence)" のマッチング、(?&gt;\PM\pM*)と等価</t>
+  </si>
+  <si>
+    <t>\C</t>
+  </si>
+  <si>
+    <t>1つの C 文字 (オクテット)にマッチング、Unicode 環境でも同じ。補足: 文字をUTF-8バイト列へと変換するので、壊れた UTF-8 片となるかもしれません. 後読みはサポートしていません</t>
+  </si>
+  <si>
+    <t>指定したグループへの後方参照。 '1' には正の整数を指定できます</t>
+  </si>
+  <si>
+    <t>\g1</t>
+  </si>
+  <si>
+    <t>指定したまたは前のグループへの後方参照</t>
+  </si>
+  <si>
+    <t>\g{-1}</t>
+  </si>
+  <si>
+    <t>数値は前のバッファを示す負の値にもできます、また任意で安全にパースするために波かっこで括ることもできます</t>
+  </si>
+  <si>
+    <t>\g{name} 名前指定の後方参照</t>
+  </si>
+  <si>
+    <t>\k&lt;name&gt; 名前指定の後方参照</t>
+  </si>
+  <si>
+    <t>\K</t>
+  </si>
+  <si>
+    <t>\K の左にある物を保持、$&amp; に含めない</t>
+  </si>
+  <si>
+    <t>\v</t>
+  </si>
+  <si>
+    <t>垂直空白</t>
+  </si>
+  <si>
+    <t>\V</t>
+  </si>
+  <si>
+    <t>垂直空白以外</t>
+  </si>
+  <si>
+    <t>\h</t>
+  </si>
+  <si>
+    <t>水平空白</t>
+  </si>
+  <si>
+    <t>\H</t>
+  </si>
+  <si>
+    <t>水平空白以外</t>
+  </si>
+  <si>
+    <t>\R</t>
+  </si>
+  <si>
+    <t>行区切り</t>
+  </si>
+  <si>
+    <t>[[:alpha:]]</t>
+  </si>
+  <si>
+    <t>[[:alnum:]]</t>
+  </si>
+  <si>
+    <t>[[:ascii:]]</t>
+  </si>
+  <si>
+    <t>[[:blank:]]</t>
+  </si>
+  <si>
+    <t>[[:cntrl:]]</t>
+  </si>
+  <si>
+    <t>[[:digit:]]</t>
+  </si>
+  <si>
+    <t>[[:graph:]]</t>
+  </si>
+  <si>
+    <t>[[:lower:]]</t>
+  </si>
+  <si>
+    <t>[[:print:]]</t>
+  </si>
+  <si>
+    <t>[[:punct:]]</t>
+  </si>
+  <si>
+    <t>[[:space:]]</t>
+  </si>
+  <si>
+    <t>[[:upper:]]</t>
+  </si>
+  <si>
+    <t>[[:word:]]</t>
+  </si>
+  <si>
+    <t>[[:xdigit:]]</t>
+  </si>
+  <si>
+    <t>文字クラス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>言明</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>\b</t>
+  </si>
+  <si>
+    <t>単語境界にマッチング</t>
+  </si>
+  <si>
+    <t>\B</t>
+  </si>
+  <si>
+    <t>単語境界以外にマッチング</t>
+  </si>
+  <si>
+    <t>\A</t>
+  </si>
+  <si>
+    <t>文字列の開始にのみマッチング</t>
+  </si>
+  <si>
+    <t>\Z</t>
+  </si>
+  <si>
+    <t>文字列の終端または終端の改行前にのみマッチング</t>
+  </si>
+  <si>
+    <t>\z</t>
+  </si>
+  <si>
+    <t>文字列の終端にのみマッチング</t>
+  </si>
+  <si>
+    <t>\G</t>
+  </si>
+  <si>
+    <t>pos() の位置にのみマッチング (つまり前のm//gのマッチング終端位置)</t>
+  </si>
+  <si>
+    <t>捕捉バッファ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>拡張パターン</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -171,8 +661,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -489,113 +985,1028 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD0CE4BB-94FD-419D-B0CA-5A8FD92E8694}">
-  <dimension ref="B1:H9"/>
+  <dimension ref="B2:I113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" width="102.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.09765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="3" style="1"/>
+    <col min="4" max="4" width="5.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="102.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="3" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="E1" t="s">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="F2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B2" t="s">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C3" t="s">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="D4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C4" t="s">
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="D5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C5" t="s">
+      <c r="F5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="D6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C6" t="s">
+      <c r="F6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="D7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C7" t="s">
+      <c r="F7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="D8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C8" t="s">
+      <c r="F8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="D9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C9" t="s">
+      <c r="F9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="D10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E9" t="s">
-        <v>11</v>
+      <c r="F10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B12" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="D13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="D14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="D15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="D16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B21" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C22" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C30" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D34" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D35" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D36" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C38" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D39" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D40" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D41" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D42" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D43" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D44" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B46" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D47" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D48" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D49" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D50" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D51" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D52" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D53" s="1">
+        <v>33</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D54" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D55" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D56" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D57" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D58" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D59" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D60" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D61" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D62" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D63" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D64" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D65" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D66" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D67" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D68" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D69" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D70" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D71" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D72" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D73" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D74" s="1">
+        <v>1</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D75" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D76" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D77" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D78" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D79" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D80" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D81" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D82" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D83" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D84" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B86" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D87" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D88" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D89" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D90" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D91" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D92" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D93" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D94" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D95" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D96" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D97" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D98" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D99" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D100" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B102" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D103" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D104" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D105" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D106" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D107" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D108" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B110" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B113" s="1" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
